--- a/BreakSentence/BreakSentence_Output/Excel/test.xlsx
+++ b/BreakSentence/BreakSentence_Output/Excel/test.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A288"/>
+  <dimension ref="A1:A140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1401,1042 +1401,6 @@
         </is>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Furthermore, all objects to which we show respect and make offerings are simply supports with which we practice Dharma.44 But the Dharma itself is in our own minds. </t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t xml:space="preserve">It is not something outside. </t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t xml:space="preserve">It depends entirely on our good or evil intentions. </t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t xml:space="preserve">So it’s very important always to have a good heart. </t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t xml:space="preserve">If we do, this itself means that we possess the Buddha’s teaching. </t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t xml:space="preserve">If we practice virtue properly, if we reject evil, if we have confidence in the karmic law of cause and effect, and if we have real trust in the Three Jewels, we will never do anything to be ashamed of. </t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>It is important not to do things that we will regret in the future.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Because of the places where we live these days, we are constantly in contact with foreigners. </t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Our young people are falling under their influence and are losing their faith. </t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t xml:space="preserve">There is a risk that they will lose interest in the Dharma. </t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We should think about this carefully and try to find ways that this can be avoided. </t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Never give up the Three Jewels!</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guru Rinpoche prophesied the calamity that has be-fallen Tibet, and he also spoke of ways it could have been avoided. </t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t xml:space="preserve">From the time of the fifth45 to the thirteenth46 Dalai Lamas, all the ceremonies needed to avert the disaster were performed properly. </t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t xml:space="preserve">But when the thirteenth Dalai Lama passed away, the prophecies were put aside and neglected, and the ceremonies and rituals were not performed as they should have been. </t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Because of this, the prediction was fulfilled, “Evil doctrines will spread, evil forces will arise within and the people’s minds will be possessed by demons.” </t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t xml:space="preserve">If Guru Rinpoche had been able to perform the exorcism three times when he was in Tibet, binding the evil forces under oath, Buddhadharma would have remained for a very long time. </t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>But he was hindered by wicked ministers and could only perform the exorcism twice.47 This is why our country has sunk into the catastrophe that you know only too well.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t xml:space="preserve">And yet, in the midst of this terrible situation, there is at least one good thing: His Holiness the Dalai Lama. </t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Outwardly, he is like an iron fence and inwardly like a precious treasure. </t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t xml:space="preserve">He is our refuge in this and future lives, the guide of gods and men. </t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t xml:space="preserve">He has been able to come and settle, without any danger to his life, in India, the noble land. </t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t xml:space="preserve">To the eye of an impartial observer, it is thanks to this that an amazing development has taken place, both for the Dharma and in the political situation of us Tibetans. </t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t xml:space="preserve">You all know this—you don’t need me to tell you. </t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t xml:space="preserve">It has all happened thanks to His Holiness the Dalai Lama, and to him alone. </t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We should be endlessly grateful to him and pray for his long life. </t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>This is vital.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t xml:space="preserve">But what does this imply? </t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t xml:space="preserve">There is not one person among us who has not received teachings and empowerments from His Holiness. </t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Since we are now linked with him in the Dharma, we must observe the samaya. </t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>If we go around devotedly saying, “Oh, Gyalwa Rinpoche, Gyalwa Rinpoche!”</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t xml:space="preserve">48 but behave in a way that contradicts this devotion, our conduct is absolutely wrong. </t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We must act according to His Holiness’s wishes. </t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Condensing our samayas into a single point, we must understand that we are all the disciples of the Buddha and all followers of the one teaching that is his. </t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On this basis we should practice the tradition to which we are drawn. </t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We must refrain from criticizing other traditions and schools, and stop entertaining wrong notions about them. </t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We are in a foreign country; </t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t xml:space="preserve">we should not make an exhibition of our bad behavior! </t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Even if we are unable to have pure vision regarding each other, we should at the very least aim and aspire not to criticize and have wrong views about each other. </t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sometimes it appears we are completely at logger-heads! </t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As soon as one problem is solved, another one arises. </t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t xml:space="preserve">It’s quite uncanny! </t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t xml:space="preserve">So do your best to avoid such things. </t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Older people should advise the young, and we should all raise our spirits and aspirations. </t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This is so important at the present time. </t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>And indeed, this is the best way to pray for the long life of His Holiness and perform a real service for the Dharma.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Whether we come from this region or from farther afield, we all want Tibet to be free. </t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We are like people gasping with thirst. </t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t xml:space="preserve">To that end, laity and religious must all be truly united. </t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t xml:space="preserve">And this should not be mere lip service; </t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t xml:space="preserve">we must really be united like water mixed with milk. </t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t xml:space="preserve">If we succeed in this, I am convinced that thanks to bodhichitta, to the unflinching resolve of the teacher, the Three Jewels, and above all, His Holiness the Dalai Lama, Tibet will once again regain its freedom. </t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t xml:space="preserve">But if we fight among ourselves and constantly create difficulties for each other, this is not only a disgrace but constitutes a real obstacle. </t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t xml:space="preserve">So keep this in mind, all of you. </t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I beg you to strive to make His Holiness’s wishes come true! </t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This is my advice to you, the advice of an old man. </t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>It is indeed my testament.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>Magical Nectar</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>Advice for a Disciple</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>Namo!</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>Gracious Lord of all the buddha families,</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>The nature and embodiment of every refuge,</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>To you, the Lotus-Born, my jeweled crown, I bow in homage!60</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t xml:space="preserve">If I were to instruct others in the excellent way, who on earth would listen? </t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t xml:space="preserve">For I am wholly without discrimination and cannot be a guide even for myself! </t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Still, you see me with pure vision and you did ask. </t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>So rather than be a disappointment, I will say a few things as they come to mind.</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t xml:space="preserve">All success, great and small, whether in spiritual or temporal affairs, derives from your stock of merit. </t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t xml:space="preserve">So never neglect even the slightest positive deed. </t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Just do it. </t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In the same way, don’t dismiss your little faults as unimportant—just restrain yourself! </t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Make an effort to accumulate merit: make offerings and give to charity. </t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Strive with a good heart to do everything that benefits others. </t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Follow in the footsteps of the wise and carefully examine everything you do. </t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Do not be the slave of unexamined fashions. </t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Be sparing with your words. </t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Be thoughtful and examine situations carefully. </t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t xml:space="preserve">For the roots of discrimination must be nourished: the desire to do all that should be done and to abandon all that should be abandoned. </t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Do not criticize the wise or be sarcastic about them. </t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rid yourself completely of every feeling of jealous rivalry. </t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Do not despise the ignorant, turning away from them with haughty arrogance. </t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Give up your pride. </t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Give up your self-importance. </t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t xml:space="preserve">All this is essential. </t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Understand that you owe your life to the kindness of your parents, therefore do not grieve them but fulfil their wishes. </t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Show courtesy and consideration to all who depend on you. </t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Instill in them a sense of goodness, and instruct them to practice virtue and avoid evil. </t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>Be patient with their little shortcomings and restrain your bad temper—remember that the tiniest thing can ruin a good situation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Do not consort with narrow-minded people, nor place your trust in new and untried companions. </t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Make friends with honest people who are intelligent and prudent, and have a sense of propriety and courtesy. </t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Don’t keep company with bad people who care nothing about karma, those who lie and cheat and steal. </t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Distance yourself, but do it skillfully. </t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>Do not rely on people who say sweet things to your face and do the reverse behind your back.</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As for yourself, be constant amid the ebb and flow of happiness and suffering. </t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Be friendly and even with others. </t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Unguarded, intemperate chatter will put you in their power; </t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t xml:space="preserve">excessive silence may leave them unclear as to what you mean. </t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Keep a middle course: don’t swagger with self-confidence, but don’t be a doormat either. </t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Don’t run after gossip without examining the truth of it. </t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t xml:space="preserve">People who know how to keep their mouths shut are rare. </t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t xml:space="preserve">So don’t chatter about your wishes and intentions—keep them to yourself. </t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>And whether you are speaking to an enemy, an acquaintance, or a friend, never break a confidence.</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Be welcoming toward people, and smile and talk pleasantly. </t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Keep to your position. </t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Be respectful toward your superiors, and even when things do not go well for them, don’t scorn them. </t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>At the same time, don’t bow and scrape before the vulgar, even when they are proud and full of themselves.</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Be skillful: do not make promises that you know you cannot keep. </t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t xml:space="preserve">By the same token, honor the promises you have made, and never dismiss them as unimportant. </t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>Do not be depressed by misfortune and the failure to get what you want, instead be careful to see where your real profit and loss lie.</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t xml:space="preserve">All such worldly conduct, adopted with proper discrimination, will result in this life’s fortune and prosperity and, so it is said, a speedy passage to the divine realms. </t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>If, however, you want to get out of samsara completely, here is some advice that should help you on your way to liberation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t xml:space="preserve">If you have no contentment, you are poor no matter how much money you have. </t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t xml:space="preserve">So decide that you have enough, and rid yourself of yearning and attachment. </t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t xml:space="preserve">It’s a rare person indeed who knows that wealth is passing and unstable, and who can practice perfect generosity. </t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>Even for those who do practice it, generosity is often soiled by the three impurities and is wasted, like good food mixed with poison.61</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Apart from the beings agonizing in hell, there is no one in samsara who does not cherish life. </t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Of the seven excellences of the higher realms, longevity is a karmic effect similar to its cause.62 Therefore (if you want to have a long life) protect the lives of others. </t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>Concentrate on doing this!</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cultivate faith and devotion to the Three Jewels and to your teacher. </t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Strive in the ten virtues and combine clear intelligence with extensive learning. </t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nurture a sense of personal integrity and propriety regarding others. </t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>With these seven sublime riches, you will always be happy!63</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t xml:space="preserve">To gain peace and happiness for oneself is the Hinayana approach of the shravakas and pratyekabuddhas. </t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The altruism of bodhichitta is the path of beings of great potential. </t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Therefore train yourself in the deeds of bodhisattvas, and do this on a grand scale! </t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Shoulder the responsibility of freeing all beings from samsara. </t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Of all the eighty-four thousand sections of the Buddha’s teachings, none is more profound than bodhichitta. </t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Make every effort on the path, uniting absolute and relative bodhichitta. </t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This distills the essence of all the sutras and the tantras. </t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The subduing of one’s own mind is the root of Dharma. </t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>When the mind is controlled, defilements naturally subside.</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Do not allow yourself to become impervious and blasé64 regarding the Dharma; </t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t xml:space="preserve">do not lead yourself astray. </t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Let the profound Dharma sink into your mind. </t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Now that you have obtained this excellent life, so hard to find, now that you have the freedom to practice the teachings, don’t waste your time. </t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Strive to accomplish the supreme unchanging goal. </t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t xml:space="preserve">For life is passing, and there is no certainty about the time of death. </t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>Even if you should die tomorrow, you should have confidence and be without regret.</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cultivate real devotion for your root teacher, and love your vajra kindred, cultivating pure perception in their regard. </t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fortunate are those disciples who at all times keep their samaya and vows as dearly as their lives. </t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>They gain accomplishment quickly.</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ignorance, the five poisons, doubt, and dualistic clinging are the roots of samsara and the sufferings of the three realms. </t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t xml:space="preserve">There is one antidote that removes or liberates everything in a single stroke. </t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t xml:space="preserve">It is spontaneous wisdom, the primal wisdom of awareness. </t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Be confident, therefore, in the creation stage: appearances, sounds, and thoughts are but the primordial display of deity, mantra, and primal wisdom. </t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>Then settle in the “subsequent” (anuyoga) path of the three specific perceptions, the perfection stage, the state of bliss and emptiness.65</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Take your stand on the ultimate practice of the Heart Essence—samsara and nirvana are the display of awareness. </t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>Without distraction, without meditation, in a state of natural relaxation, constantly remain in the pure, all-penetrating nakedness of ultimate reality.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
